--- a/EAGLE449/00 Vestibular atlas labels.xlsx
+++ b/EAGLE449/00 Vestibular atlas labels.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emory-my.sharepoint.com/personal/jwallen_emory_edu/Documents/PCVMS/00 2022 new whole-brain vestibular parcellation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emory-my.sharepoint.com/personal/jwallen_emory_edu/Documents/PCVMS/EAGLE449/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="721" documentId="11_F25DC773A252ABDACC1048FC595F64EE5ADE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{62163D42-D3D7-428C-835A-CCAC5752A990}"/>
+  <xr:revisionPtr revIDLastSave="791" documentId="11_F25DC773A252ABDACC1048FC595F64EE5ADE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39EF4511-3DE6-4C0B-8386-8D15A6D5263D}"/>
   <bookViews>
-    <workbookView xWindow="12180" yWindow="4365" windowWidth="9930" windowHeight="13725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34560" yWindow="2805" windowWidth="25800" windowHeight="12705" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A1 EI" sheetId="7" r:id="rId1"/>
@@ -20,6 +20,8 @@
     <sheet name="B2 BS" sheetId="3" r:id="rId5"/>
     <sheet name="B3 DE" sheetId="2" r:id="rId6"/>
     <sheet name="B4 HTH" sheetId="1" r:id="rId7"/>
+    <sheet name="VESTIBULAR" sheetId="8" r:id="rId8"/>
+    <sheet name="EXTD VESTIBULAR" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="922">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="949">
   <si>
     <t>ROI NUM</t>
   </si>
@@ -2599,9 +2601,6 @@
     <t>L inferior parietal area PF/40/anterior supramarginal gyrus [*]</t>
   </si>
   <si>
-    <t>L caudal cingulate area 23 [*]</t>
-  </si>
-  <si>
     <t>L dorsolateral middle temporal area 37/hMST [*]</t>
   </si>
   <si>
@@ -2677,9 +2676,6 @@
     <t>R caudal lingual gyrus/medioventral occipital cortex</t>
   </si>
   <si>
-    <t>R caudal cingulate area 23 [*]</t>
-  </si>
-  <si>
     <t>R caudodorsal cingulate area 24</t>
   </si>
   <si>
@@ -2807,6 +2803,93 @@
   </si>
   <si>
     <t>FULL LABEL (*vestibular, **expanded/multimodal vestibular)</t>
+  </si>
+  <si>
+    <t>Atlas A1: Eickhoff-Indovina</t>
+  </si>
+  <si>
+    <t>Atlas A2: Brainnetome</t>
+  </si>
+  <si>
+    <t>L posterior insular complex (Indovina)</t>
+  </si>
+  <si>
+    <t>R posterior insular complex (Indovina)</t>
+  </si>
+  <si>
+    <t>L inferior parietal/supramarginal area PFcm</t>
+  </si>
+  <si>
+    <t>L inferior parietal area PF/40/anterior supramarginal gyrus</t>
+  </si>
+  <si>
+    <t>L parietal area OP2 (parieto-insular vestibular cortex, PIVC)</t>
+  </si>
+  <si>
+    <t>R inferior parietal/supramarginal area PFcm</t>
+  </si>
+  <si>
+    <t>R inferior parietal area PF/40/anterior supramarginal gyrus</t>
+  </si>
+  <si>
+    <t>R parietaR area OP2 (parieto-insular vestibular cortex, PIVC)</t>
+  </si>
+  <si>
+    <t>L dorsolateral middle temporal area 37/hMST</t>
+  </si>
+  <si>
+    <t>R dorsolateral middle temporal area 37/hMST</t>
+  </si>
+  <si>
+    <t>L caudal cingulate area 23 (vestibular cingulate, CSv)</t>
+  </si>
+  <si>
+    <t>R caudal cingulate area 23 (vestibular cingulate, CSv)</t>
+  </si>
+  <si>
+    <t>L caudal cingulate area 23  (vestibular cingulate, CSv) [*]</t>
+  </si>
+  <si>
+    <t>R caudal cingulate area 23 (vestibular cingulate, CSv) [*]</t>
+  </si>
+  <si>
+    <t>L hIPS3/hIP3/VIP</t>
+  </si>
+  <si>
+    <t>L primary somatosensory area 2</t>
+  </si>
+  <si>
+    <t>L primary somatosensory area 3a</t>
+  </si>
+  <si>
+    <t>L visual area V5/MT</t>
+  </si>
+  <si>
+    <t>R hIPS3/hIP3/VIP</t>
+  </si>
+  <si>
+    <t>R primary somatosensory area 2</t>
+  </si>
+  <si>
+    <t>R primary somatosensory area 3a</t>
+  </si>
+  <si>
+    <t>R visual area V5/MT</t>
+  </si>
+  <si>
+    <t>L intraparietal/superior parietal area 7 (hIP3)</t>
+  </si>
+  <si>
+    <t>R intraparietal/superior parietal area 7 (hIP3)</t>
+  </si>
+  <si>
+    <t>L postcentral area 2</t>
+  </si>
+  <si>
+    <t>R postcentral area 2</t>
+  </si>
+  <si>
+    <t>Atlas B2: Brainstem</t>
   </si>
 </sst>
 </file>
@@ -3290,9 +3373,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3349,6 +3433,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3616,8 +3704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FFA3141-3381-416C-A440-F376F67F9EBA}">
   <dimension ref="A1:C103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3628,14 +3716,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -3656,23 +3744,23 @@
       <c r="B3" t="s">
         <v>260</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>845</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>261</v>
       </c>
       <c r="C4" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -3683,62 +3771,62 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>263</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>264</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>265</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>266</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>267</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
@@ -3749,7 +3837,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
@@ -3760,18 +3848,18 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>270</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
@@ -3782,29 +3870,29 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>272</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>707</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>273</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
@@ -3815,51 +3903,51 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>275</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>276</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>277</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>278</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
@@ -3870,18 +3958,18 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+      <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>280</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+      <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
@@ -3892,18 +3980,18 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+      <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>282</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+      <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
@@ -3914,7 +4002,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+      <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
@@ -3925,7 +4013,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+      <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
@@ -3936,29 +4024,29 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+      <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>286</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+      <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>287</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+      <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
@@ -3969,7 +4057,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+      <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
@@ -3980,7 +4068,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+      <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
@@ -3991,7 +4079,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+      <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
@@ -4002,7 +4090,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
+      <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
@@ -4013,51 +4101,51 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+      <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>293</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
+      <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>294</v>
       </c>
       <c r="C37" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
+      <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>295</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>855</v>
+      <c r="C38" t="s">
+        <v>854</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
+      <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>296</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
+      <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
@@ -4068,18 +4156,18 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
+      <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>298</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
+      <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
@@ -4090,117 +4178,117 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
+      <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>300</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
+      <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>301</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
+      <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>302</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
+      <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
         <v>303</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
+      <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>304</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
+      <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>305</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
+      <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
         <v>306</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
+      <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
         <v>307</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
+      <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
         <v>308</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
+      <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>309</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>856</v>
+      <c r="C52" t="s">
+        <v>855</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
+      <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
@@ -4211,552 +4299,552 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
+      <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>311</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>857</v>
+      <c r="C54" t="s">
+        <v>856</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
+      <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>312</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
+      <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
         <v>313</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
+      <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>314</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
+      <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
         <v>315</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
+      <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
         <v>316</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
+      <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
         <v>317</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
+      <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
         <v>318</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
+      <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
         <v>319</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
+      <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
         <v>320</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
+      <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
         <v>321</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
+      <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
         <v>322</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
+      <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
         <v>323</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
+      <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
         <v>324</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
+      <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
         <v>325</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
+      <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
         <v>326</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
+      <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
         <v>327</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
+      <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
         <v>328</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
+      <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
         <v>329</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
+      <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
         <v>330</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
+      <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
         <v>331</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
+      <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
         <v>332</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
+      <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
         <v>333</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" t="s">
         <v>849</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
+      <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
         <v>334</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" t="s">
         <v>850</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
+      <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
         <v>335</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
+      <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
         <v>336</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C79" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
+      <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
         <v>337</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C80" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
+      <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
         <v>338</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="1">
+      <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
         <v>339</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82" t="s">
         <v>846</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="1">
+      <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
         <v>340</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="1">
+      <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
         <v>341</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="1">
+      <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
         <v>342</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C85" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="1">
+      <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
         <v>343</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="1">
+      <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
         <v>344</v>
       </c>
-      <c r="C87" s="1" t="s">
-        <v>860</v>
+      <c r="C87" t="s">
+        <v>859</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="1">
+      <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
         <v>345</v>
       </c>
-      <c r="C88" s="1" t="s">
-        <v>861</v>
+      <c r="C88" t="s">
+        <v>860</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="1">
+      <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
         <v>346</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C89" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="1">
+      <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
         <v>347</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C90" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="1">
+      <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
         <v>348</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C91" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="1">
+      <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
         <v>349</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C92" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="1">
+      <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
         <v>350</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C93" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="1">
+      <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
         <v>351</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C94" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="1">
+      <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
         <v>352</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C95" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="1">
+      <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
         <v>353</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C96" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="1">
+      <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
         <v>354</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C97" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="1">
+      <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" t="s">
         <v>355</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C98" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="1">
+      <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
         <v>356</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C99" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="1">
+      <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="s">
         <v>357</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C100" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="1">
+      <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" t="s">
         <v>358</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C101" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="1">
+      <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" t="s">
         <v>359</v>
       </c>
-      <c r="C102" s="1" t="s">
-        <v>859</v>
+      <c r="C102" t="s">
+        <v>858</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="1">
+      <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" t="s">
         <v>360</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C103" t="s">
         <v>433</v>
       </c>
     </row>
@@ -4770,7 +4858,7 @@
   <dimension ref="A1:C230"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4781,14 +4869,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>921</v>
+      <c r="C1" s="1" t="s">
+        <v>919</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -4809,34 +4897,34 @@
       <c r="B3" t="s">
         <v>442</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>920</v>
+      <c r="C3" t="s">
+        <v>918</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>443</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>444</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>919</v>
+      <c r="C5" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -4847,18 +4935,18 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>446</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>918</v>
+      <c r="C7" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
@@ -4869,18 +4957,18 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>448</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>917</v>
+      <c r="C9" t="s">
+        <v>915</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
@@ -4891,40 +4979,40 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>450</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>916</v>
+      <c r="C11" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>451</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>452</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>915</v>
+      <c r="C13" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
@@ -4935,18 +5023,18 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>454</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>914</v>
+      <c r="C15" t="s">
+        <v>912</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
@@ -4957,18 +5045,18 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>456</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>913</v>
+      <c r="C17" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
@@ -4979,18 +5067,18 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>458</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>671</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
@@ -5001,40 +5089,40 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>460</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>912</v>
+      <c r="C21" t="s">
+        <v>910</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>461</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
         <v>776</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+      <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>462</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>911</v>
+      <c r="C23" t="s">
+        <v>909</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+      <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
@@ -5045,18 +5133,18 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+      <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>464</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>910</v>
+      <c r="C25" t="s">
+        <v>908</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+      <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
@@ -5067,18 +5155,18 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+      <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>466</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>909</v>
+      <c r="C27" t="s">
+        <v>907</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+      <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
@@ -5089,18 +5177,18 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+      <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>468</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>908</v>
+      <c r="C29" t="s">
+        <v>906</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+      <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
@@ -5111,18 +5199,18 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+      <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>470</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>907</v>
+      <c r="C31" t="s">
+        <v>905</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+      <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
@@ -5133,18 +5221,18 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+      <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>472</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" t="s">
         <v>673</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+      <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
@@ -5155,18 +5243,18 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
+      <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>474</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+      <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
@@ -5177,18 +5265,18 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
+      <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>476</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" t="s">
         <v>677</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
+      <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
@@ -5199,40 +5287,40 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
+      <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>478</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>906</v>
+      <c r="C39" t="s">
+        <v>904</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
+      <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>479</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" t="s">
         <v>824</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
+      <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>480</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>905</v>
+      <c r="C41" t="s">
+        <v>903</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
+      <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
@@ -5243,18 +5331,18 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
+      <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>482</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
+      <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
@@ -5265,18 +5353,18 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
+      <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>484</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
+      <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
@@ -5287,40 +5375,40 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
+      <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>486</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" t="s">
         <v>696</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
+      <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>487</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" t="s">
         <v>697</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
+      <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
         <v>488</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" t="s">
         <v>698</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
+      <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
@@ -5331,18 +5419,18 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
+      <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
         <v>490</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" t="s">
         <v>700</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
+      <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
@@ -5353,18 +5441,18 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
+      <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>492</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" t="s">
         <v>702</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
+      <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
@@ -5375,106 +5463,106 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
+      <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>494</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" t="s">
         <v>710</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
+      <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
         <v>495</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" t="s">
         <v>720</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
+      <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>496</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" t="s">
         <v>721</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
+      <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
         <v>497</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" t="s">
         <v>711</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
+      <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
         <v>498</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" t="s">
         <v>712</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
+      <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
         <v>499</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" t="s">
         <v>713</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
+      <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
         <v>500</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
+      <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
         <v>501</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" t="s">
         <v>715</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
+      <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
         <v>502</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" t="s">
         <v>716</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
+      <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
@@ -5485,18 +5573,18 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
+      <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
         <v>504</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" t="s">
         <v>719</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
+      <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
@@ -5507,40 +5595,40 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
+      <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
         <v>506</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>904</v>
+      <c r="C67" t="s">
+        <v>902</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
+      <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
         <v>507</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" t="s">
         <v>717</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
+      <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
         <v>508</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>903</v>
+      <c r="C69" t="s">
+        <v>901</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
+      <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
@@ -5551,18 +5639,18 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
+      <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
         <v>510</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>902</v>
+      <c r="C71" t="s">
+        <v>900</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
+      <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
@@ -5573,18 +5661,18 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
+      <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
         <v>512</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>901</v>
+      <c r="C73" t="s">
+        <v>899</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
+      <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
@@ -5595,18 +5683,18 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
+      <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
         <v>514</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" t="s">
         <v>745</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
+      <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
@@ -5617,18 +5705,18 @@
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
+      <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
         <v>516</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>900</v>
+      <c r="C77" t="s">
+        <v>898</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
+      <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
@@ -5639,18 +5727,18 @@
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
+      <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
         <v>518</v>
       </c>
-      <c r="C79" s="1" t="s">
-        <v>899</v>
+      <c r="C79" t="s">
+        <v>897</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
+      <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
@@ -5661,18 +5749,18 @@
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
+      <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
         <v>520</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>898</v>
+      <c r="C81" t="s">
+        <v>896</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="1">
+      <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
@@ -5683,18 +5771,18 @@
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="1">
+      <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
         <v>522</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>897</v>
+      <c r="C83" t="s">
+        <v>895</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="1">
+      <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
@@ -5705,40 +5793,40 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="1">
+      <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
         <v>524</v>
       </c>
-      <c r="C85" s="1" t="s">
-        <v>896</v>
+      <c r="C85" t="s">
+        <v>894</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="1">
+      <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
         <v>525</v>
       </c>
       <c r="C86" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="1">
+      <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
         <v>526</v>
       </c>
-      <c r="C87" s="1" t="s">
-        <v>895</v>
+      <c r="C87" t="s">
+        <v>893</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="1">
+      <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
@@ -5749,18 +5837,18 @@
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="1">
+      <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
         <v>528</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C89" t="s">
         <v>747</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="1">
+      <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
@@ -5771,18 +5859,18 @@
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="1">
+      <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
         <v>530</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C91" t="s">
         <v>749</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="1">
+      <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
@@ -5793,18 +5881,18 @@
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="1">
+      <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
         <v>532</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C93" t="s">
         <v>756</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="1">
+      <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
@@ -5815,18 +5903,18 @@
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="1">
+      <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
         <v>534</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C95" t="s">
         <v>758</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="1">
+      <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
@@ -5837,18 +5925,18 @@
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="1">
+      <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
         <v>536</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C97" t="s">
         <v>760</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="1">
+      <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" t="s">
@@ -5859,18 +5947,18 @@
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="1">
+      <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
         <v>538</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C99" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="1">
+      <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="s">
@@ -5881,18 +5969,18 @@
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="1">
+      <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" t="s">
         <v>540</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C101" t="s">
         <v>765</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="1">
+      <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" t="s">
@@ -5903,18 +5991,18 @@
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="1">
+      <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" t="s">
         <v>542</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C103" t="s">
         <v>766</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="1">
+      <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" t="s">
@@ -5925,18 +6013,18 @@
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="1">
+      <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" t="s">
         <v>544</v>
       </c>
-      <c r="C105" s="1" t="s">
-        <v>894</v>
+      <c r="C105" t="s">
+        <v>892</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="1">
+      <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" t="s">
@@ -5947,40 +6035,40 @@
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="1">
+      <c r="A107">
         <v>106</v>
       </c>
       <c r="B107" t="s">
         <v>546</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C107" t="s">
         <v>778</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="1">
+      <c r="A108">
         <v>107</v>
       </c>
       <c r="B108" t="s">
         <v>547</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C108" t="s">
         <v>779</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="1">
+      <c r="A109">
         <v>108</v>
       </c>
       <c r="B109" t="s">
         <v>548</v>
       </c>
-      <c r="C109" s="1" t="s">
-        <v>893</v>
+      <c r="C109" t="s">
+        <v>891</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="1">
+      <c r="A110">
         <v>109</v>
       </c>
       <c r="B110" t="s">
@@ -5991,40 +6079,40 @@
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="1">
+      <c r="A111">
         <v>110</v>
       </c>
       <c r="B111" t="s">
         <v>550</v>
       </c>
-      <c r="C111" s="1" t="s">
-        <v>892</v>
+      <c r="C111" t="s">
+        <v>890</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="1">
+      <c r="A112">
         <v>111</v>
       </c>
       <c r="B112" t="s">
         <v>551</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="C112" t="s">
         <v>780</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="1">
+      <c r="A113">
         <v>112</v>
       </c>
       <c r="B113" t="s">
         <v>552</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="C113" t="s">
         <v>781</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="1">
+      <c r="A114">
         <v>113</v>
       </c>
       <c r="B114" t="s">
@@ -6035,18 +6123,18 @@
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="1">
+      <c r="A115">
         <v>114</v>
       </c>
       <c r="B115" t="s">
         <v>554</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="C115" t="s">
         <v>783</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="1">
+      <c r="A116">
         <v>115</v>
       </c>
       <c r="B116" t="s">
@@ -6057,18 +6145,18 @@
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="1">
+      <c r="A117">
         <v>116</v>
       </c>
       <c r="B117" t="s">
         <v>556</v>
       </c>
-      <c r="C117" s="1" t="s">
-        <v>891</v>
+      <c r="C117" t="s">
+        <v>889</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="1">
+      <c r="A118">
         <v>117</v>
       </c>
       <c r="B118" t="s">
@@ -6079,18 +6167,18 @@
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="1">
+      <c r="A119">
         <v>118</v>
       </c>
       <c r="B119" t="s">
         <v>558</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="C119" t="s">
         <v>735</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="1">
+      <c r="A120">
         <v>119</v>
       </c>
       <c r="B120" t="s">
@@ -6101,18 +6189,18 @@
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="1">
+      <c r="A121">
         <v>120</v>
       </c>
       <c r="B121" t="s">
         <v>560</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="C121" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="1">
+      <c r="A122">
         <v>121</v>
       </c>
       <c r="B122" t="s">
@@ -6123,40 +6211,40 @@
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="1">
+      <c r="A123">
         <v>122</v>
       </c>
       <c r="B123" t="s">
         <v>562</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="C123" t="s">
         <v>801</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="1">
+      <c r="A124">
         <v>123</v>
       </c>
       <c r="B124" t="s">
         <v>563</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="C124" t="s">
         <v>802</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="1">
+      <c r="A125">
         <v>124</v>
       </c>
       <c r="B125" t="s">
         <v>564</v>
       </c>
-      <c r="C125" s="1" t="s">
-        <v>890</v>
+      <c r="C125" t="s">
+        <v>888</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="1">
+      <c r="A126">
         <v>125</v>
       </c>
       <c r="B126" t="s">
@@ -6167,40 +6255,40 @@
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="1">
+      <c r="A127">
         <v>126</v>
       </c>
       <c r="B127" t="s">
         <v>566</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="C127" t="s">
         <v>793</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" s="1">
+      <c r="A128">
         <v>127</v>
       </c>
       <c r="B128" t="s">
         <v>567</v>
       </c>
-      <c r="C128" s="1" t="s">
+      <c r="C128" t="s">
         <v>794</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="1">
+      <c r="A129">
         <v>128</v>
       </c>
       <c r="B129" t="s">
         <v>568</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="C129" t="s">
         <v>795</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="1">
+      <c r="A130">
         <v>129</v>
       </c>
       <c r="B130" t="s">
@@ -6211,18 +6299,18 @@
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="1">
+      <c r="A131">
         <v>130</v>
       </c>
       <c r="B131" t="s">
         <v>570</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="C131" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="1">
+      <c r="A132">
         <v>131</v>
       </c>
       <c r="B132" t="s">
@@ -6233,40 +6321,40 @@
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="1">
+      <c r="A133">
         <v>132</v>
       </c>
       <c r="B133" t="s">
         <v>572</v>
       </c>
-      <c r="C133" s="1" t="s">
+      <c r="C133" t="s">
         <v>799</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="1">
+      <c r="A134">
         <v>133</v>
       </c>
       <c r="B134" t="s">
         <v>573</v>
       </c>
       <c r="C134" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="1">
+      <c r="A135">
         <v>134</v>
       </c>
       <c r="B135" t="s">
         <v>574</v>
       </c>
-      <c r="C135" s="1" t="s">
-        <v>889</v>
+      <c r="C135" t="s">
+        <v>887</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="1">
+      <c r="A136">
         <v>135</v>
       </c>
       <c r="B136" t="s">
@@ -6277,18 +6365,18 @@
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="1">
+      <c r="A137">
         <v>136</v>
       </c>
       <c r="B137" t="s">
         <v>576</v>
       </c>
-      <c r="C137" s="1" t="s">
-        <v>888</v>
+      <c r="C137" t="s">
+        <v>886</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="1">
+      <c r="A138">
         <v>137</v>
       </c>
       <c r="B138" t="s">
@@ -6299,40 +6387,40 @@
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="1">
+      <c r="A139">
         <v>138</v>
       </c>
       <c r="B139" t="s">
         <v>578</v>
       </c>
-      <c r="C139" s="1" t="s">
-        <v>887</v>
+      <c r="C139" t="s">
+        <v>885</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="1">
+      <c r="A140">
         <v>139</v>
       </c>
       <c r="B140" t="s">
         <v>579</v>
       </c>
-      <c r="C140" s="1" t="s">
+      <c r="C140" t="s">
         <v>828</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="1">
+      <c r="A141">
         <v>140</v>
       </c>
       <c r="B141" t="s">
         <v>580</v>
       </c>
-      <c r="C141" s="1" t="s">
-        <v>886</v>
+      <c r="C141" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="1">
+      <c r="A142">
         <v>141</v>
       </c>
       <c r="B142" t="s">
@@ -6343,18 +6431,18 @@
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" s="1">
+      <c r="A143">
         <v>142</v>
       </c>
       <c r="B143" t="s">
         <v>582</v>
       </c>
-      <c r="C143" s="1" t="s">
-        <v>885</v>
+      <c r="C143" t="s">
+        <v>883</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" s="1">
+      <c r="A144">
         <v>143</v>
       </c>
       <c r="B144" t="s">
@@ -6365,18 +6453,18 @@
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" s="1">
+      <c r="A145">
         <v>144</v>
       </c>
       <c r="B145" t="s">
         <v>584</v>
       </c>
-      <c r="C145" s="1" t="s">
-        <v>884</v>
+      <c r="C145" t="s">
+        <v>882</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" s="1">
+      <c r="A146">
         <v>145</v>
       </c>
       <c r="B146" t="s">
@@ -6387,18 +6475,18 @@
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" s="1">
+      <c r="A147">
         <v>146</v>
       </c>
       <c r="B147" t="s">
         <v>586</v>
       </c>
-      <c r="C147" s="1" t="s">
-        <v>883</v>
+      <c r="C147" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" s="1">
+      <c r="A148">
         <v>147</v>
       </c>
       <c r="B148" t="s">
@@ -6409,18 +6497,18 @@
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" s="1">
+      <c r="A149">
         <v>148</v>
       </c>
       <c r="B149" t="s">
         <v>588</v>
       </c>
-      <c r="C149" s="1" t="s">
+      <c r="C149" t="s">
         <v>788</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" s="1">
+      <c r="A150">
         <v>149</v>
       </c>
       <c r="B150" t="s">
@@ -6431,18 +6519,18 @@
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" s="1">
+      <c r="A151">
         <v>150</v>
       </c>
       <c r="B151" t="s">
         <v>590</v>
       </c>
-      <c r="C151" s="1" t="s">
-        <v>882</v>
+      <c r="C151" t="s">
+        <v>880</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" s="1">
+      <c r="A152">
         <v>151</v>
       </c>
       <c r="B152" t="s">
@@ -6453,18 +6541,18 @@
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" s="1">
+      <c r="A153">
         <v>152</v>
       </c>
       <c r="B153" t="s">
         <v>592</v>
       </c>
-      <c r="C153" s="1" t="s">
+      <c r="C153" t="s">
         <v>785</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" s="1">
+      <c r="A154">
         <v>153</v>
       </c>
       <c r="B154" t="s">
@@ -6475,106 +6563,106 @@
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" s="1">
+      <c r="A155">
         <v>154</v>
       </c>
       <c r="B155" t="s">
         <v>594</v>
       </c>
-      <c r="C155" s="1" t="s">
+      <c r="C155" t="s">
         <v>790</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" s="1">
+      <c r="A156">
         <v>155</v>
       </c>
       <c r="B156" t="s">
         <v>595</v>
       </c>
-      <c r="C156" s="1" t="s">
+      <c r="C156" t="s">
         <v>739</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" s="1">
+      <c r="A157">
         <v>156</v>
       </c>
       <c r="B157" t="s">
         <v>596</v>
       </c>
-      <c r="C157" s="1" t="s">
+      <c r="C157" t="s">
         <v>740</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" s="1">
+      <c r="A158">
         <v>157</v>
       </c>
       <c r="B158" t="s">
         <v>597</v>
       </c>
-      <c r="C158" s="1" t="s">
+      <c r="C158" t="s">
         <v>741</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" s="1">
+      <c r="A159">
         <v>158</v>
       </c>
       <c r="B159" t="s">
         <v>598</v>
       </c>
-      <c r="C159" s="1" t="s">
+      <c r="C159" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" s="1">
+      <c r="A160">
         <v>159</v>
       </c>
       <c r="B160" t="s">
         <v>599</v>
       </c>
       <c r="C160" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161" s="1">
+      <c r="A161">
         <v>160</v>
       </c>
       <c r="B161" t="s">
         <v>600</v>
       </c>
-      <c r="C161" s="1" t="s">
-        <v>881</v>
+      <c r="C161" t="s">
+        <v>879</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" s="1">
+      <c r="A162">
         <v>161</v>
       </c>
       <c r="B162" t="s">
         <v>601</v>
       </c>
-      <c r="C162" s="1" t="s">
+      <c r="C162" t="s">
         <v>743</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" s="1">
+      <c r="A163">
         <v>162</v>
       </c>
       <c r="B163" t="s">
         <v>602</v>
       </c>
-      <c r="C163" s="1" t="s">
-        <v>880</v>
+      <c r="C163" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" s="1">
+      <c r="A164">
         <v>163</v>
       </c>
       <c r="B164" t="s">
@@ -6585,18 +6673,18 @@
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165" s="1">
+      <c r="A165">
         <v>164</v>
       </c>
       <c r="B165" t="s">
         <v>604</v>
       </c>
-      <c r="C165" s="1" t="s">
+      <c r="C165" t="s">
         <v>723</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" s="1">
+      <c r="A166">
         <v>165</v>
       </c>
       <c r="B166" t="s">
@@ -6607,40 +6695,40 @@
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" s="1">
+      <c r="A167">
         <v>166</v>
       </c>
       <c r="B167" t="s">
         <v>606</v>
       </c>
-      <c r="C167" s="1" t="s">
+      <c r="C167" t="s">
         <v>725</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168" s="1">
+      <c r="A168">
         <v>167</v>
       </c>
       <c r="B168" t="s">
         <v>607</v>
       </c>
-      <c r="C168" s="1" t="s">
+      <c r="C168" t="s">
         <v>726</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169" s="1">
+      <c r="A169">
         <v>168</v>
       </c>
       <c r="B169" t="s">
         <v>608</v>
       </c>
-      <c r="C169" s="1" t="s">
+      <c r="C169" t="s">
         <v>727</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170" s="1">
+      <c r="A170">
         <v>169</v>
       </c>
       <c r="B170" t="s">
@@ -6651,18 +6739,18 @@
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171" s="1">
+      <c r="A171">
         <v>170</v>
       </c>
       <c r="B171" t="s">
         <v>610</v>
       </c>
-      <c r="C171" s="1" t="s">
+      <c r="C171" t="s">
         <v>729</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172" s="1">
+      <c r="A172">
         <v>171</v>
       </c>
       <c r="B172" t="s">
@@ -6673,18 +6761,18 @@
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173" s="1">
+      <c r="A173">
         <v>172</v>
       </c>
       <c r="B173" t="s">
         <v>612</v>
       </c>
-      <c r="C173" s="1" t="s">
+      <c r="C173" t="s">
         <v>731</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A174" s="1">
+      <c r="A174">
         <v>173</v>
       </c>
       <c r="B174" t="s">
@@ -6695,18 +6783,18 @@
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175" s="1">
+      <c r="A175">
         <v>174</v>
       </c>
       <c r="B175" t="s">
         <v>614</v>
       </c>
-      <c r="C175" s="1" t="s">
+      <c r="C175" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A176" s="1">
+      <c r="A176">
         <v>175</v>
       </c>
       <c r="B176" t="s">
@@ -6717,40 +6805,40 @@
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177" s="1">
+      <c r="A177">
         <v>176</v>
       </c>
       <c r="B177" t="s">
         <v>616</v>
       </c>
-      <c r="C177" s="1" t="s">
+      <c r="C177" t="s">
         <v>804</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A178" s="1">
+      <c r="A178">
         <v>177</v>
       </c>
       <c r="B178" t="s">
         <v>617</v>
       </c>
-      <c r="C178" s="1" t="s">
+      <c r="C178" t="s">
         <v>805</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179" s="1">
+      <c r="A179">
         <v>178</v>
       </c>
       <c r="B179" t="s">
         <v>618</v>
       </c>
-      <c r="C179" s="1" t="s">
+      <c r="C179" t="s">
         <v>806</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180" s="1">
+      <c r="A180">
         <v>179</v>
       </c>
       <c r="B180" t="s">
@@ -6761,18 +6849,18 @@
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181" s="1">
+      <c r="A181">
         <v>180</v>
       </c>
       <c r="B181" t="s">
         <v>620</v>
       </c>
-      <c r="C181" s="1" t="s">
+      <c r="C181" t="s">
         <v>808</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A182" s="1">
+      <c r="A182">
         <v>181</v>
       </c>
       <c r="B182" t="s">
@@ -6783,18 +6871,18 @@
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A183" s="1">
+      <c r="A183">
         <v>182</v>
       </c>
       <c r="B183" t="s">
         <v>622</v>
       </c>
-      <c r="C183" s="1" t="s">
+      <c r="C183" t="s">
         <v>810</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A184" s="1">
+      <c r="A184">
         <v>183</v>
       </c>
       <c r="B184" t="s">
@@ -6805,40 +6893,40 @@
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185" s="1">
+      <c r="A185">
         <v>184</v>
       </c>
       <c r="B185" t="s">
         <v>624</v>
       </c>
-      <c r="C185" s="1" t="s">
-        <v>879</v>
+      <c r="C185" t="s">
+        <v>877</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186" s="1">
+      <c r="A186">
         <v>185</v>
       </c>
       <c r="B186" t="s">
         <v>625</v>
       </c>
       <c r="C186" t="s">
-        <v>852</v>
+        <v>934</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187" s="1">
+      <c r="A187">
         <v>186</v>
       </c>
       <c r="B187" t="s">
         <v>626</v>
       </c>
-      <c r="C187" s="1" t="s">
-        <v>878</v>
+      <c r="C187" t="s">
+        <v>935</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A188" s="1">
+      <c r="A188">
         <v>187</v>
       </c>
       <c r="B188" t="s">
@@ -6849,18 +6937,18 @@
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A189" s="1">
+      <c r="A189">
         <v>188</v>
       </c>
       <c r="B189" t="s">
         <v>628</v>
       </c>
-      <c r="C189" s="1" t="s">
+      <c r="C189" t="s">
         <v>813</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A190" s="1">
+      <c r="A190">
         <v>189</v>
       </c>
       <c r="B190" t="s">
@@ -6871,62 +6959,62 @@
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A191" s="1">
+      <c r="A191">
         <v>190</v>
       </c>
       <c r="B191" t="s">
         <v>630</v>
       </c>
-      <c r="C191" s="1" t="s">
-        <v>877</v>
+      <c r="C191" t="s">
+        <v>876</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A192" s="1">
+      <c r="A192">
         <v>191</v>
       </c>
       <c r="B192" t="s">
         <v>631</v>
       </c>
-      <c r="C192" s="1" t="s">
+      <c r="C192" t="s">
         <v>834</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193" s="1">
+      <c r="A193">
         <v>192</v>
       </c>
       <c r="B193" t="s">
         <v>632</v>
       </c>
-      <c r="C193" s="1" t="s">
-        <v>876</v>
+      <c r="C193" t="s">
+        <v>875</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A194" s="1">
+      <c r="A194">
         <v>193</v>
       </c>
       <c r="B194" t="s">
         <v>633</v>
       </c>
-      <c r="C194" s="1" t="s">
+      <c r="C194" t="s">
         <v>835</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A195" s="1">
+      <c r="A195">
         <v>194</v>
       </c>
       <c r="B195" t="s">
         <v>634</v>
       </c>
-      <c r="C195" s="1" t="s">
-        <v>875</v>
+      <c r="C195" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A196" s="1">
+      <c r="A196">
         <v>195</v>
       </c>
       <c r="B196" t="s">
@@ -6937,18 +7025,18 @@
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A197" s="1">
+      <c r="A197">
         <v>196</v>
       </c>
       <c r="B197" t="s">
         <v>636</v>
       </c>
-      <c r="C197" s="1" t="s">
+      <c r="C197" t="s">
         <v>833</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A198" s="1">
+      <c r="A198">
         <v>197</v>
       </c>
       <c r="B198" t="s">
@@ -6959,18 +7047,18 @@
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A199" s="1">
+      <c r="A199">
         <v>198</v>
       </c>
       <c r="B199" t="s">
         <v>638</v>
       </c>
-      <c r="C199" s="1" t="s">
+      <c r="C199" t="s">
         <v>837</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A200" s="1">
+      <c r="A200">
         <v>199</v>
       </c>
       <c r="B200" t="s">
@@ -6981,18 +7069,18 @@
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A201" s="1">
+      <c r="A201">
         <v>200</v>
       </c>
       <c r="B201" t="s">
         <v>640</v>
       </c>
-      <c r="C201" s="1" t="s">
-        <v>874</v>
+      <c r="C201" t="s">
+        <v>873</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A202" s="1">
+      <c r="A202">
         <v>201</v>
       </c>
       <c r="B202" t="s">
@@ -7003,18 +7091,18 @@
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A203" s="1">
+      <c r="A203">
         <v>202</v>
       </c>
       <c r="B203" t="s">
         <v>642</v>
       </c>
-      <c r="C203" s="1" t="s">
-        <v>873</v>
+      <c r="C203" t="s">
+        <v>872</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A204" s="1">
+      <c r="A204">
         <v>203</v>
       </c>
       <c r="B204" t="s">
@@ -7025,18 +7113,18 @@
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A205" s="1">
+      <c r="A205">
         <v>204</v>
       </c>
       <c r="B205" t="s">
         <v>644</v>
       </c>
-      <c r="C205" s="1" t="s">
+      <c r="C205" t="s">
         <v>840</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A206" s="1">
+      <c r="A206">
         <v>205</v>
       </c>
       <c r="B206" t="s">
@@ -7047,18 +7135,18 @@
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A207" s="1">
+      <c r="A207">
         <v>206</v>
       </c>
       <c r="B207" t="s">
         <v>646</v>
       </c>
-      <c r="C207" s="1" t="s">
-        <v>872</v>
+      <c r="C207" t="s">
+        <v>871</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A208" s="1">
+      <c r="A208">
         <v>207</v>
       </c>
       <c r="B208" t="s">
@@ -7069,18 +7157,18 @@
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A209" s="1">
+      <c r="A209">
         <v>208</v>
       </c>
       <c r="B209" t="s">
         <v>648</v>
       </c>
-      <c r="C209" s="1" t="s">
-        <v>871</v>
+      <c r="C209" t="s">
+        <v>870</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A210" s="1">
+      <c r="A210">
         <v>209</v>
       </c>
       <c r="B210" t="s">
@@ -7091,40 +7179,40 @@
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A211" s="1">
+      <c r="A211">
         <v>210</v>
       </c>
       <c r="B211" t="s">
         <v>650</v>
       </c>
-      <c r="C211" s="1" t="s">
-        <v>870</v>
+      <c r="C211" t="s">
+        <v>869</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A212" s="1">
+      <c r="A212">
         <v>211</v>
       </c>
       <c r="B212" t="s">
         <v>651</v>
       </c>
-      <c r="C212" s="1" t="s">
+      <c r="C212" t="s">
         <v>690</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A213" s="1">
+      <c r="A213">
         <v>212</v>
       </c>
       <c r="B213" t="s">
         <v>652</v>
       </c>
-      <c r="C213" s="1" t="s">
-        <v>869</v>
+      <c r="C213" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A214" s="1">
+      <c r="A214">
         <v>213</v>
       </c>
       <c r="B214" t="s">
@@ -7135,40 +7223,40 @@
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A215" s="1">
+      <c r="A215">
         <v>214</v>
       </c>
       <c r="B215" t="s">
         <v>654</v>
       </c>
-      <c r="C215" s="1" t="s">
-        <v>868</v>
+      <c r="C215" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A216" s="1">
+      <c r="A216">
         <v>215</v>
       </c>
       <c r="B216" t="s">
         <v>655</v>
       </c>
-      <c r="C216" s="1" t="s">
+      <c r="C216" t="s">
         <v>688</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A217" s="1">
+      <c r="A217">
         <v>216</v>
       </c>
       <c r="B217" t="s">
         <v>656</v>
       </c>
-      <c r="C217" s="1" t="s">
-        <v>867</v>
+      <c r="C217" t="s">
+        <v>866</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A218" s="1">
+      <c r="A218">
         <v>217</v>
       </c>
       <c r="B218" t="s">
@@ -7179,18 +7267,18 @@
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A219" s="1">
+      <c r="A219">
         <v>218</v>
       </c>
       <c r="B219" t="s">
         <v>658</v>
       </c>
-      <c r="C219" s="1" t="s">
-        <v>866</v>
+      <c r="C219" t="s">
+        <v>865</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A220" s="1">
+      <c r="A220">
         <v>219</v>
       </c>
       <c r="B220" t="s">
@@ -7201,18 +7289,18 @@
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A221" s="1">
+      <c r="A221">
         <v>220</v>
       </c>
       <c r="B221" t="s">
         <v>660</v>
       </c>
-      <c r="C221" s="1" t="s">
-        <v>865</v>
+      <c r="C221" t="s">
+        <v>864</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A222" s="1">
+      <c r="A222">
         <v>221</v>
       </c>
       <c r="B222" t="s">
@@ -7223,18 +7311,18 @@
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A223" s="1">
+      <c r="A223">
         <v>222</v>
       </c>
       <c r="B223" t="s">
         <v>662</v>
       </c>
-      <c r="C223" s="1" t="s">
+      <c r="C223" t="s">
         <v>679</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A224" s="1">
+      <c r="A224">
         <v>223</v>
       </c>
       <c r="B224" t="s">
@@ -7245,18 +7333,18 @@
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A225" s="1">
+      <c r="A225">
         <v>224</v>
       </c>
       <c r="B225" t="s">
         <v>664</v>
       </c>
-      <c r="C225" s="1" t="s">
+      <c r="C225" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A226" s="1">
+      <c r="A226">
         <v>225</v>
       </c>
       <c r="B226" t="s">
@@ -7267,18 +7355,18 @@
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A227" s="1">
+      <c r="A227">
         <v>226</v>
       </c>
       <c r="B227" t="s">
         <v>666</v>
       </c>
-      <c r="C227" s="1" t="s">
+      <c r="C227" t="s">
         <v>683</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A228" s="1">
+      <c r="A228">
         <v>227</v>
       </c>
       <c r="B228" t="s">
@@ -7289,18 +7377,18 @@
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A229" s="1">
+      <c r="A229">
         <v>228</v>
       </c>
       <c r="B229" t="s">
         <v>668</v>
       </c>
-      <c r="C229" s="1" t="s">
-        <v>864</v>
+      <c r="C229" t="s">
+        <v>863</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A230" s="1">
+      <c r="A230">
         <v>229</v>
       </c>
       <c r="B230" t="s">
@@ -7319,8 +7407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB80E9ED-193B-43F3-BA5A-BDAFEE24C38C}">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7331,13 +7419,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -7724,8 +7812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74B6C141-614F-4DC5-8730-0BFE8C0C8D9D}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7736,13 +7824,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -7909,8 +7997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D670C29-7F8A-436F-90D1-909EF64FFEDD}">
   <dimension ref="A1:C67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62:C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7921,13 +8009,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -8666,8 +8754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD745CB6-D7D3-4FE5-9F52-19300998320A}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8678,13 +8766,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -8763,8 +8851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8775,13 +8863,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -8876,4 +8964,429 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2CCF59F-6EDE-4681-BB58-AACEB0827D88}">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="61.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C3" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C4" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C5" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>284</v>
+      </c>
+      <c r="C6" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>289</v>
+      </c>
+      <c r="C7" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>75</v>
+      </c>
+      <c r="B8" t="s">
+        <v>333</v>
+      </c>
+      <c r="C8" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>76</v>
+      </c>
+      <c r="B9" t="s">
+        <v>334</v>
+      </c>
+      <c r="C9" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>81</v>
+      </c>
+      <c r="B10" t="s">
+        <v>339</v>
+      </c>
+      <c r="C10" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>85</v>
+      </c>
+      <c r="B13" t="s">
+        <v>525</v>
+      </c>
+      <c r="C13" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>86</v>
+      </c>
+      <c r="B14" t="s">
+        <v>526</v>
+      </c>
+      <c r="C14" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>185</v>
+      </c>
+      <c r="B15" t="s">
+        <v>625</v>
+      </c>
+      <c r="C15" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>186</v>
+      </c>
+      <c r="B16" t="s">
+        <v>626</v>
+      </c>
+      <c r="C16" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>61</v>
+      </c>
+      <c r="B19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>62</v>
+      </c>
+      <c r="B20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" t="s">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A17:C17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C54CEC4-1BC4-41B8-816F-DC84FA9F0551}">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="69.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C3" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C4" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>295</v>
+      </c>
+      <c r="C5" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>51</v>
+      </c>
+      <c r="B6" t="s">
+        <v>309</v>
+      </c>
+      <c r="C6" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>53</v>
+      </c>
+      <c r="B7" t="s">
+        <v>311</v>
+      </c>
+      <c r="C7" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>86</v>
+      </c>
+      <c r="B8" t="s">
+        <v>344</v>
+      </c>
+      <c r="C8" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>87</v>
+      </c>
+      <c r="B9" t="s">
+        <v>345</v>
+      </c>
+      <c r="C9" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>101</v>
+      </c>
+      <c r="B10" t="s">
+        <v>359</v>
+      </c>
+      <c r="C10" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>133</v>
+      </c>
+      <c r="B13" t="s">
+        <v>573</v>
+      </c>
+      <c r="C13" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>134</v>
+      </c>
+      <c r="B14" t="s">
+        <v>574</v>
+      </c>
+      <c r="C14" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>159</v>
+      </c>
+      <c r="B15" t="s">
+        <v>599</v>
+      </c>
+      <c r="C15" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>160</v>
+      </c>
+      <c r="B16" t="s">
+        <v>600</v>
+      </c>
+      <c r="C16" t="s">
+        <v>947</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A11:C11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>